--- a/イベント更新・削除_単体テスト.xlsx
+++ b/イベント更新・削除_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{968CBA57-08FE-44A0-9CCF-1151F6D45ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E5AEC4B-D36F-4EF3-9CB9-FF929B4720EF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{968CBA57-08FE-44A0-9CCF-1151F6D45ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52438EEA-D1D2-4310-9DB0-087A76D20DA4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="5" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="イベント更新画面" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="198">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -195,19 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.アカウント削除画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>該当アカウントの「名前（姓）」の表示</t>
     <rPh sb="0" eb="2">
       <t>ガイトウ</t>
@@ -1142,25 +1129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.マイページ画面の「…」ボタンを押し、「削除」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変更がなかった場合、「変更はありませんでした。」が表示されているか</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -1870,32 +1838,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当イベントの「開始日」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当イベントの「終了日」（ある場合のみ）の表示</t>
-    <rPh sb="8" eb="11">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>該当イベントの「内容」の表示</t>
     <rPh sb="0" eb="2">
       <t>ガイトウ</t>
@@ -2401,6 +2343,84 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「開始日時」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「終了日時」（ある場合のみ）の表示</t>
+    <rPh sb="8" eb="11">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの「開始日時」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したため、イベント削除ができませんでした。」とエラーメッセージを</t>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したため、イベント削除ができませんでした。」</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3744,7 +3764,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A28:I32" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A28:I31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="20"/>
@@ -4113,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1A857-B7E4-4351-AD44-8F6DAF254401}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4125,20 +4145,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4165,12 +4185,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4211,19 +4231,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45993</v>
+        <v>91</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -4233,7 +4253,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4249,19 +4269,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45993</v>
+        <v>92</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -4271,7 +4291,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4287,19 +4307,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45993</v>
+        <v>93</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -4309,7 +4329,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4325,19 +4345,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45993</v>
+        <v>94</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -4347,7 +4367,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -4363,19 +4383,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45993</v>
+        <v>95</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -4385,7 +4405,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4401,19 +4421,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45993</v>
+        <v>96</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -4423,7 +4443,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -4439,19 +4459,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45993</v>
+        <v>114</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -4461,7 +4481,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4477,19 +4497,19 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45993</v>
+        <v>159</v>
+      </c>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -4513,19 +4533,19 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="4">
-        <v>45993</v>
+        <v>160</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -4549,19 +4569,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45993</v>
+        <v>161</v>
+      </c>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -4585,19 +4605,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="4">
-        <v>45993</v>
+        <v>161</v>
+      </c>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -4621,19 +4641,19 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="4">
-        <v>45993</v>
+        <v>162</v>
+      </c>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -4657,19 +4677,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45993</v>
+        <v>170</v>
+      </c>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -4679,7 +4699,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4695,19 +4715,19 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="4">
-        <v>45993</v>
+        <v>170</v>
+      </c>
+      <c r="G34" s="3">
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -4731,19 +4751,19 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="4">
-        <v>45993</v>
+        <v>163</v>
+      </c>
+      <c r="G36" s="3">
+        <v>46016</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -4767,19 +4787,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45993</v>
+        <v>164</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46016</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -4803,19 +4823,19 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="4">
-        <v>45993</v>
+        <v>129</v>
+      </c>
+      <c r="G40" s="3">
+        <v>46016</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -4825,7 +4845,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4841,19 +4861,19 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="4">
-        <v>45993</v>
+        <v>129</v>
+      </c>
+      <c r="G42" s="3">
+        <v>46016</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -4863,7 +4883,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4879,19 +4899,19 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="4">
-        <v>45993</v>
+        <v>129</v>
+      </c>
+      <c r="G44" s="3">
+        <v>46016</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -4901,7 +4921,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -4917,19 +4937,19 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="4">
-        <v>45993</v>
+        <v>169</v>
+      </c>
+      <c r="G46" s="3">
+        <v>46016</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -4939,7 +4959,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -4955,19 +4975,19 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="4">
-        <v>45993</v>
+        <v>169</v>
+      </c>
+      <c r="G48" s="3">
+        <v>46016</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -4977,7 +4997,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -4989,23 +5009,23 @@
         <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="4">
-        <v>45993</v>
+        <v>112</v>
+      </c>
+      <c r="G50" s="3">
+        <v>46016</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -5015,7 +5035,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -5031,19 +5051,19 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G52" s="4">
-        <v>45993</v>
+        <v>179</v>
+      </c>
+      <c r="G52" s="3">
+        <v>46016</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -5053,7 +5073,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
@@ -5095,13 +5115,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5133,7 +5153,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5174,10 +5194,10 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -5186,7 +5206,7 @@
         <v>45826</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -5196,7 +5216,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5209,7 +5229,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5225,19 +5245,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3">
         <v>45826</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -5247,7 +5267,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5260,7 +5280,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5276,19 +5296,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3">
         <v>45826</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -5298,7 +5318,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5311,7 +5331,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -5327,19 +5347,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="3">
         <v>45826</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -5349,7 +5369,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -5362,7 +5382,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -5378,19 +5398,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="3">
         <v>45826</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -5400,7 +5420,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5413,7 +5433,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5429,19 +5449,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3">
         <v>45826</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -5451,7 +5471,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -5464,7 +5484,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -5480,19 +5500,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" s="3">
         <v>45826</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -5502,7 +5522,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
@@ -5515,7 +5535,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -5531,19 +5551,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" s="3">
         <v>45826</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -5553,7 +5573,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -5566,7 +5586,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
@@ -5582,19 +5602,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32" s="3">
         <v>45826</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -5604,7 +5624,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -5617,7 +5637,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -5633,19 +5653,19 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" s="3">
         <v>45826</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -5655,7 +5675,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -5668,7 +5688,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -5684,19 +5704,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" s="3">
         <v>45826</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -5706,7 +5726,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
@@ -5719,7 +5739,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -5735,19 +5755,19 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" s="3">
         <v>45826</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -5757,7 +5777,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -5770,7 +5790,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -5786,19 +5806,19 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" s="3">
         <v>45826</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -5808,7 +5828,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -5821,7 +5841,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -5837,19 +5857,19 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" s="3">
         <v>45826</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -5859,7 +5879,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -5872,7 +5892,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
@@ -5888,10 +5908,10 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>17</v>
@@ -5900,7 +5920,7 @@
         <v>45826</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -5910,7 +5930,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -5923,7 +5943,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -5939,19 +5959,19 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G53" s="3">
         <v>45826</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -5961,7 +5981,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -5974,7 +5994,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
@@ -5990,19 +6010,19 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" s="3">
         <v>45826</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I56" s="5"/>
     </row>
@@ -6012,7 +6032,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
@@ -6025,7 +6045,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -6037,23 +6057,23 @@
         <v>18</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G59" s="3">
         <v>45826</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -6062,10 +6082,10 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -6078,7 +6098,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -6113,8 +6133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6125,20 +6145,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6170,7 +6190,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6211,19 +6231,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45998</v>
+        <v>181</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -6233,7 +6253,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -6246,7 +6266,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -6262,19 +6282,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45993</v>
+        <v>182</v>
+      </c>
+      <c r="G11" s="3">
+        <v>46016</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -6284,7 +6304,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -6297,7 +6317,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6313,19 +6333,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45998</v>
+        <v>183</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -6335,7 +6355,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6348,7 +6368,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -6364,19 +6384,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45998</v>
+        <v>184</v>
+      </c>
+      <c r="G17" s="3">
+        <v>46016</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -6386,7 +6406,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -6399,7 +6419,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6415,19 +6435,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45998</v>
+        <v>185</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -6437,7 +6457,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -6450,7 +6470,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -6466,19 +6486,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="4">
-        <v>45993</v>
+        <v>88</v>
+      </c>
+      <c r="G23" s="3">
+        <v>46016</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -6488,7 +6508,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -6501,7 +6521,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -6517,19 +6537,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45993</v>
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -6539,7 +6559,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -6552,7 +6572,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -6568,19 +6588,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="4">
-        <v>45993</v>
+        <v>174</v>
+      </c>
+      <c r="G29" s="3">
+        <v>46016</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -6589,10 +6609,10 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -6605,7 +6625,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -6621,19 +6641,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45993</v>
+        <v>180</v>
+      </c>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -6643,7 +6663,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
@@ -6656,7 +6676,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -6668,23 +6688,23 @@
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="4">
-        <v>45993</v>
+        <v>112</v>
+      </c>
+      <c r="G35" s="3">
+        <v>46016</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -6694,7 +6714,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -6716,10 +6736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD27"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6730,20 +6750,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6770,12 +6790,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6816,19 +6836,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45993</v>
+        <v>151</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -6838,7 +6858,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -6854,19 +6874,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45993</v>
+        <v>152</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -6876,7 +6896,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -6892,19 +6912,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45993</v>
+        <v>194</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -6914,7 +6934,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -6930,19 +6950,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45993</v>
+        <v>193</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -6952,7 +6972,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -6968,19 +6988,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45993</v>
+        <v>153</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -6990,7 +7010,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -7006,19 +7026,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45993</v>
+        <v>154</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -7028,7 +7048,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -7044,19 +7064,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45993</v>
+        <v>157</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -7066,10 +7086,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="2"/>
@@ -7084,19 +7104,19 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45993</v>
+        <v>85</v>
+      </c>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -7106,7 +7126,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -7122,19 +7142,19 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="4">
-        <v>45993</v>
+        <v>86</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -7144,7 +7164,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
@@ -7160,19 +7180,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45993</v>
+        <v>156</v>
+      </c>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -7182,7 +7202,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
@@ -7194,23 +7214,23 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="4">
-        <v>45993</v>
+        <v>112</v>
+      </c>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -7220,12 +7240,52 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7263,7 +7323,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -7340,19 +7400,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3">
         <v>45826</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -7362,7 +7422,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -7375,7 +7435,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -7391,19 +7451,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3">
         <v>45826</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -7413,7 +7473,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -7426,7 +7486,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -7442,19 +7502,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="3">
         <v>45826</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -7464,7 +7524,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -7477,7 +7537,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7489,23 +7549,23 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="3">
         <v>45826</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -7515,7 +7575,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -7528,7 +7588,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -7544,19 +7604,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="3">
         <v>45826</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -7566,7 +7626,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -7579,7 +7639,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -7595,19 +7655,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G23" s="3">
         <v>45826</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -7617,7 +7677,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -7630,7 +7690,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -7653,8 +7713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7665,20 +7725,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7705,12 +7765,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7751,19 +7811,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45993</v>
+        <v>150</v>
+      </c>
+      <c r="G9" s="3">
+        <v>46016</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -7773,7 +7833,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
@@ -7786,7 +7846,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -7802,19 +7862,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45993</v>
+        <v>104</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -7824,7 +7884,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -7837,7 +7897,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -7853,19 +7913,19 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45993</v>
+        <v>98</v>
+      </c>
+      <c r="G15" s="3">
+        <v>46016</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -7875,7 +7935,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7888,7 +7948,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -7900,23 +7960,23 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45993</v>
+        <v>112</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -7926,7 +7986,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
